--- a/data101_data/water_sources_cleaned.xlsx
+++ b/data101_data/water_sources_cleaned.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JUPYTER FILES\DATA101\Project\Final Project Dash App\D101_Interactive_Visualization_Project\data101_data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D4C9D1C-5012-41A8-9AC8-94B6B0B5D9FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="3900" yWindow="3396" windowWidth="19140" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="112">
   <si>
     <t>Region</t>
   </si>
@@ -347,13 +353,16 @@
   </si>
   <si>
     <t>SURIGAO DEL SUR</t>
+  </si>
+  <si>
+    <t>NCR, CITY OF MANILA, FIRST DISTRICT (NOT A PROVINCE)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -416,13 +425,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -460,7 +477,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -494,6 +511,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -528,9 +546,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -703,14 +722,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I87"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -736,7 +757,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -765,7 +786,7 @@
         <v>3046</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -794,7 +815,7 @@
         <v>1901</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -823,7 +844,7 @@
         <v>7734</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -852,7 +873,7 @@
         <v>14515</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -881,7 +902,7 @@
         <v>2163</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -910,7 +931,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -939,7 +960,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -968,7 +989,7 @@
         <v>2474</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -997,7 +1018,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1026,7 +1047,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1055,7 +1076,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1084,7 +1105,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1113,7 +1134,7 @@
         <v>1334</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1142,7 +1163,7 @@
         <v>18559</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1171,7 +1192,7 @@
         <v>3163</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1200,7 +1221,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1208,28 +1229,28 @@
         <v>11</v>
       </c>
       <c r="C18" t="s">
-        <v>41</v>
+        <v>111</v>
       </c>
       <c r="D18">
-        <v>351364</v>
+        <v>0</v>
       </c>
       <c r="E18">
-        <v>10851</v>
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>527</v>
+        <v>0</v>
       </c>
       <c r="G18">
-        <v>509638</v>
+        <v>0</v>
       </c>
       <c r="H18">
-        <v>3941</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>25122</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1237,28 +1258,28 @@
         <v>11</v>
       </c>
       <c r="C19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D19">
-        <v>758009</v>
+        <v>351364</v>
       </c>
       <c r="E19">
-        <v>5767</v>
+        <v>10851</v>
       </c>
       <c r="F19">
-        <v>385</v>
+        <v>527</v>
       </c>
       <c r="G19">
-        <v>298954</v>
+        <v>509638</v>
       </c>
       <c r="H19">
-        <v>3060</v>
+        <v>3941</v>
       </c>
       <c r="I19">
-        <v>24698</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>25122</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1266,57 +1287,57 @@
         <v>11</v>
       </c>
       <c r="C20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D20">
-        <v>436751</v>
+        <v>758009</v>
       </c>
       <c r="E20">
-        <v>12230</v>
+        <v>5767</v>
       </c>
       <c r="F20">
-        <v>548</v>
+        <v>385</v>
       </c>
       <c r="G20">
-        <v>203919</v>
+        <v>298954</v>
       </c>
       <c r="H20">
-        <v>285</v>
+        <v>3060</v>
       </c>
       <c r="I20">
-        <v>14281</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>24698</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D21">
-        <v>24048</v>
+        <v>436751</v>
       </c>
       <c r="E21">
-        <v>33087</v>
+        <v>12230</v>
       </c>
       <c r="F21">
-        <v>18475</v>
+        <v>548</v>
       </c>
       <c r="G21">
-        <v>57946</v>
+        <v>203919</v>
       </c>
       <c r="H21">
-        <v>5444</v>
+        <v>285</v>
       </c>
       <c r="I21">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>14281</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1324,28 +1345,28 @@
         <v>12</v>
       </c>
       <c r="C22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D22">
-        <v>24705</v>
+        <v>24048</v>
       </c>
       <c r="E22">
-        <v>68790</v>
+        <v>33087</v>
       </c>
       <c r="F22">
-        <v>2999</v>
+        <v>18475</v>
       </c>
       <c r="G22">
-        <v>50805</v>
+        <v>57946</v>
       </c>
       <c r="H22">
-        <v>7905</v>
+        <v>5444</v>
       </c>
       <c r="I22">
-        <v>1839</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1353,28 +1374,28 @@
         <v>12</v>
       </c>
       <c r="C23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D23">
-        <v>16066</v>
+        <v>24705</v>
       </c>
       <c r="E23">
-        <v>57575</v>
+        <v>68790</v>
       </c>
       <c r="F23">
-        <v>4173</v>
+        <v>2999</v>
       </c>
       <c r="G23">
-        <v>79278</v>
+        <v>50805</v>
       </c>
       <c r="H23">
-        <v>20668</v>
+        <v>7905</v>
       </c>
       <c r="I23">
-        <v>2915</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>1839</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1382,57 +1403,57 @@
         <v>12</v>
       </c>
       <c r="C24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D24">
-        <v>129392</v>
+        <v>16066</v>
       </c>
       <c r="E24">
-        <v>305543</v>
+        <v>57575</v>
       </c>
       <c r="F24">
-        <v>13984</v>
+        <v>4173</v>
       </c>
       <c r="G24">
-        <v>212441</v>
+        <v>79278</v>
       </c>
       <c r="H24">
-        <v>8648</v>
+        <v>20668</v>
       </c>
       <c r="I24">
-        <v>4567</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>2915</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D25">
-        <v>4309</v>
+        <v>129392</v>
       </c>
       <c r="E25">
-        <v>20</v>
+        <v>305543</v>
       </c>
       <c r="F25">
-        <v>4</v>
+        <v>13984</v>
       </c>
       <c r="G25">
-        <v>183</v>
+        <v>212441</v>
       </c>
       <c r="H25">
-        <v>200</v>
+        <v>8648</v>
       </c>
       <c r="I25">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>4567</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1440,28 +1461,28 @@
         <v>13</v>
       </c>
       <c r="C26" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D26">
-        <v>45658</v>
+        <v>4309</v>
       </c>
       <c r="E26">
-        <v>138979</v>
+        <v>20</v>
       </c>
       <c r="F26">
-        <v>22785</v>
+        <v>4</v>
       </c>
       <c r="G26">
-        <v>58108</v>
+        <v>183</v>
       </c>
       <c r="H26">
-        <v>6239</v>
+        <v>200</v>
       </c>
       <c r="I26">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1469,28 +1490,28 @@
         <v>13</v>
       </c>
       <c r="C27" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D27">
-        <v>40789</v>
+        <v>45658</v>
       </c>
       <c r="E27">
-        <v>211615</v>
+        <v>138979</v>
       </c>
       <c r="F27">
-        <v>28915</v>
+        <v>22785</v>
       </c>
       <c r="G27">
-        <v>80240</v>
+        <v>58108</v>
       </c>
       <c r="H27">
-        <v>8637</v>
+        <v>6239</v>
       </c>
       <c r="I27">
-        <v>2754</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1498,28 +1519,28 @@
         <v>13</v>
       </c>
       <c r="C28" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D28">
-        <v>10693</v>
+        <v>40789</v>
       </c>
       <c r="E28">
-        <v>37651</v>
+        <v>211615</v>
       </c>
       <c r="F28">
-        <v>1060</v>
+        <v>28915</v>
       </c>
       <c r="G28">
-        <v>31792</v>
+        <v>80240</v>
       </c>
       <c r="H28">
-        <v>29587</v>
+        <v>8637</v>
       </c>
       <c r="I28">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>2754</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1527,57 +1548,57 @@
         <v>13</v>
       </c>
       <c r="C29" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D29">
-        <v>3630</v>
+        <v>10693</v>
       </c>
       <c r="E29">
-        <v>24229</v>
+        <v>37651</v>
       </c>
       <c r="F29">
-        <v>444</v>
+        <v>1060</v>
       </c>
       <c r="G29">
-        <v>7221</v>
+        <v>31792</v>
       </c>
       <c r="H29">
-        <v>7892</v>
+        <v>29587</v>
       </c>
       <c r="I29">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C30" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D30">
-        <v>19032</v>
+        <v>3630</v>
       </c>
       <c r="E30">
-        <v>21385</v>
+        <v>24229</v>
       </c>
       <c r="F30">
-        <v>471</v>
+        <v>444</v>
       </c>
       <c r="G30">
-        <v>4456</v>
+        <v>7221</v>
       </c>
       <c r="H30">
-        <v>3702</v>
+        <v>7892</v>
       </c>
       <c r="I30">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1585,28 +1606,28 @@
         <v>14</v>
       </c>
       <c r="C31" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D31">
-        <v>81608</v>
+        <v>19032</v>
       </c>
       <c r="E31">
-        <v>50982</v>
+        <v>21385</v>
       </c>
       <c r="F31">
-        <v>1317</v>
+        <v>471</v>
       </c>
       <c r="G31">
-        <v>27275</v>
+        <v>4456</v>
       </c>
       <c r="H31">
-        <v>10697</v>
+        <v>3702</v>
       </c>
       <c r="I31">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1614,28 +1635,28 @@
         <v>14</v>
       </c>
       <c r="C32" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D32">
-        <v>221653</v>
+        <v>81608</v>
       </c>
       <c r="E32">
-        <v>75575</v>
+        <v>50982</v>
       </c>
       <c r="F32">
-        <v>3459</v>
+        <v>1317</v>
       </c>
       <c r="G32">
-        <v>447530</v>
+        <v>27275</v>
       </c>
       <c r="H32">
-        <v>4887</v>
+        <v>10697</v>
       </c>
       <c r="I32">
-        <v>7860</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1643,28 +1664,28 @@
         <v>14</v>
       </c>
       <c r="C33" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D33">
-        <v>192561</v>
+        <v>221653</v>
       </c>
       <c r="E33">
-        <v>245705</v>
+        <v>75575</v>
       </c>
       <c r="F33">
-        <v>1173</v>
+        <v>3459</v>
       </c>
       <c r="G33">
-        <v>45694</v>
+        <v>447530</v>
       </c>
       <c r="H33">
-        <v>9715</v>
+        <v>4887</v>
       </c>
       <c r="I33">
-        <v>2129</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>7860</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -1672,28 +1693,28 @@
         <v>14</v>
       </c>
       <c r="C34" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D34">
-        <v>249489</v>
+        <v>192561</v>
       </c>
       <c r="E34">
-        <v>110683</v>
+        <v>245705</v>
       </c>
       <c r="F34">
-        <v>1479</v>
+        <v>1173</v>
       </c>
       <c r="G34">
-        <v>203581</v>
+        <v>45694</v>
       </c>
       <c r="H34">
-        <v>4610</v>
+        <v>9715</v>
       </c>
       <c r="I34">
-        <v>5459</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>2129</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -1701,28 +1722,28 @@
         <v>14</v>
       </c>
       <c r="C35" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D35">
-        <v>62147</v>
+        <v>249489</v>
       </c>
       <c r="E35">
-        <v>141843</v>
+        <v>110683</v>
       </c>
       <c r="F35">
-        <v>1007</v>
+        <v>1479</v>
       </c>
       <c r="G35">
-        <v>102497</v>
+        <v>203581</v>
       </c>
       <c r="H35">
-        <v>2087</v>
+        <v>4610</v>
       </c>
       <c r="I35">
-        <v>2413</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>5459</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -1730,57 +1751,57 @@
         <v>14</v>
       </c>
       <c r="C36" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D36">
-        <v>55196</v>
+        <v>62147</v>
       </c>
       <c r="E36">
-        <v>67250</v>
+        <v>141843</v>
       </c>
       <c r="F36">
-        <v>2392</v>
+        <v>1007</v>
       </c>
       <c r="G36">
-        <v>61885</v>
+        <v>102497</v>
       </c>
       <c r="H36">
-        <v>10501</v>
+        <v>2087</v>
       </c>
       <c r="I36">
-        <v>1442</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>2413</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C37" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D37">
-        <v>391604</v>
+        <v>55196</v>
       </c>
       <c r="E37">
-        <v>95918</v>
+        <v>67250</v>
       </c>
       <c r="F37">
-        <v>6485</v>
+        <v>2392</v>
       </c>
       <c r="G37">
-        <v>94261</v>
+        <v>61885</v>
       </c>
       <c r="H37">
-        <v>19393</v>
+        <v>10501</v>
       </c>
       <c r="I37">
-        <v>6164</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>1442</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -1788,28 +1809,28 @@
         <v>15</v>
       </c>
       <c r="C38" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D38">
-        <v>296191</v>
+        <v>391604</v>
       </c>
       <c r="E38">
-        <v>30006</v>
+        <v>95918</v>
       </c>
       <c r="F38">
-        <v>1821</v>
+        <v>6485</v>
       </c>
       <c r="G38">
-        <v>526507</v>
+        <v>94261</v>
       </c>
       <c r="H38">
-        <v>5823</v>
+        <v>19393</v>
       </c>
       <c r="I38">
-        <v>17395</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>6164</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -1817,28 +1838,28 @@
         <v>15</v>
       </c>
       <c r="C39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D39">
-        <v>289954</v>
+        <v>296191</v>
       </c>
       <c r="E39">
-        <v>81614</v>
+        <v>30006</v>
       </c>
       <c r="F39">
-        <v>2571</v>
+        <v>1821</v>
       </c>
       <c r="G39">
-        <v>358635</v>
+        <v>526507</v>
       </c>
       <c r="H39">
-        <v>18174</v>
+        <v>5823</v>
       </c>
       <c r="I39">
-        <v>14565</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>17395</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -1846,28 +1867,28 @@
         <v>15</v>
       </c>
       <c r="C40" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D40">
-        <v>184095</v>
+        <v>289954</v>
       </c>
       <c r="E40">
-        <v>121308</v>
+        <v>81614</v>
       </c>
       <c r="F40">
-        <v>44456</v>
+        <v>2571</v>
       </c>
       <c r="G40">
-        <v>84892</v>
+        <v>358635</v>
       </c>
       <c r="H40">
-        <v>33195</v>
+        <v>18174</v>
       </c>
       <c r="I40">
-        <v>17727</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>14565</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -1875,57 +1896,57 @@
         <v>15</v>
       </c>
       <c r="C41" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D41">
-        <v>402786</v>
+        <v>184095</v>
       </c>
       <c r="E41">
-        <v>38031</v>
+        <v>121308</v>
       </c>
       <c r="F41">
-        <v>5740</v>
+        <v>44456</v>
       </c>
       <c r="G41">
-        <v>172113</v>
+        <v>84892</v>
       </c>
       <c r="H41">
-        <v>14814</v>
+        <v>33195</v>
       </c>
       <c r="I41">
-        <v>19094</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>17727</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C42" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D42">
-        <v>13193</v>
+        <v>402786</v>
       </c>
       <c r="E42">
-        <v>3801</v>
+        <v>38031</v>
       </c>
       <c r="F42">
-        <v>1132</v>
+        <v>5740</v>
       </c>
       <c r="G42">
-        <v>1792</v>
+        <v>172113</v>
       </c>
       <c r="H42">
-        <v>1011</v>
+        <v>14814</v>
       </c>
       <c r="I42">
-        <v>1987</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>19094</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -1933,28 +1954,28 @@
         <v>16</v>
       </c>
       <c r="C43" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D43">
-        <v>71123</v>
+        <v>13193</v>
       </c>
       <c r="E43">
-        <v>47557</v>
+        <v>3801</v>
       </c>
       <c r="F43">
-        <v>23979</v>
+        <v>1132</v>
       </c>
       <c r="G43">
-        <v>38688</v>
+        <v>1792</v>
       </c>
       <c r="H43">
-        <v>38279</v>
+        <v>1011</v>
       </c>
       <c r="I43">
-        <v>5202</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>1987</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -1962,28 +1983,28 @@
         <v>16</v>
       </c>
       <c r="C44" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D44">
-        <v>226241</v>
+        <v>71123</v>
       </c>
       <c r="E44">
-        <v>47311</v>
+        <v>47557</v>
       </c>
       <c r="F44">
-        <v>25441</v>
+        <v>23979</v>
       </c>
       <c r="G44">
-        <v>53821</v>
+        <v>38688</v>
       </c>
       <c r="H44">
-        <v>35714</v>
+        <v>38279</v>
       </c>
       <c r="I44">
-        <v>18282</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>5202</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -1991,57 +2012,57 @@
         <v>16</v>
       </c>
       <c r="C45" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D45">
-        <v>57997</v>
+        <v>226241</v>
       </c>
       <c r="E45">
-        <v>27110</v>
+        <v>47311</v>
       </c>
       <c r="F45">
-        <v>21826</v>
+        <v>25441</v>
       </c>
       <c r="G45">
-        <v>16089</v>
+        <v>53821</v>
       </c>
       <c r="H45">
-        <v>11818</v>
+        <v>35714</v>
       </c>
       <c r="I45">
-        <v>5951</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>18282</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C46" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D46">
-        <v>123406</v>
+        <v>57997</v>
       </c>
       <c r="E46">
-        <v>72866</v>
+        <v>27110</v>
       </c>
       <c r="F46">
-        <v>12958</v>
+        <v>21826</v>
       </c>
       <c r="G46">
-        <v>42191</v>
+        <v>16089</v>
       </c>
       <c r="H46">
-        <v>20253</v>
+        <v>11818</v>
       </c>
       <c r="I46">
-        <v>5417</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>5951</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -2049,28 +2070,28 @@
         <v>17</v>
       </c>
       <c r="C47" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D47">
-        <v>73158</v>
+        <v>123406</v>
       </c>
       <c r="E47">
-        <v>19388</v>
+        <v>72866</v>
       </c>
       <c r="F47">
-        <v>12836</v>
+        <v>12958</v>
       </c>
       <c r="G47">
-        <v>7179</v>
+        <v>42191</v>
       </c>
       <c r="H47">
-        <v>9472</v>
+        <v>20253</v>
       </c>
       <c r="I47">
-        <v>7961</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>5417</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -2078,28 +2099,28 @@
         <v>17</v>
       </c>
       <c r="C48" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D48">
-        <v>190002</v>
+        <v>73158</v>
       </c>
       <c r="E48">
-        <v>123855</v>
+        <v>19388</v>
       </c>
       <c r="F48">
-        <v>20989</v>
+        <v>12836</v>
       </c>
       <c r="G48">
-        <v>24897</v>
+        <v>7179</v>
       </c>
       <c r="H48">
-        <v>24545</v>
+        <v>9472</v>
       </c>
       <c r="I48">
-        <v>16327</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>7961</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -2107,28 +2128,28 @@
         <v>17</v>
       </c>
       <c r="C49" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D49">
-        <v>25267</v>
+        <v>190002</v>
       </c>
       <c r="E49">
-        <v>16312</v>
+        <v>123855</v>
       </c>
       <c r="F49">
-        <v>426</v>
+        <v>20989</v>
       </c>
       <c r="G49">
-        <v>7177</v>
+        <v>24897</v>
       </c>
       <c r="H49">
-        <v>4606</v>
+        <v>24545</v>
       </c>
       <c r="I49">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>16327</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -2136,28 +2157,28 @@
         <v>17</v>
       </c>
       <c r="C50" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D50">
-        <v>42778</v>
+        <v>25267</v>
       </c>
       <c r="E50">
-        <v>39320</v>
+        <v>16312</v>
       </c>
       <c r="F50">
-        <v>58065</v>
+        <v>426</v>
       </c>
       <c r="G50">
-        <v>25304</v>
+        <v>7177</v>
       </c>
       <c r="H50">
-        <v>14478</v>
+        <v>4606</v>
       </c>
       <c r="I50">
-        <v>8068</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -2165,57 +2186,57 @@
         <v>17</v>
       </c>
       <c r="C51" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D51">
-        <v>85209</v>
+        <v>42778</v>
       </c>
       <c r="E51">
-        <v>39733</v>
+        <v>39320</v>
       </c>
       <c r="F51">
-        <v>10146</v>
+        <v>58065</v>
       </c>
       <c r="G51">
-        <v>13974</v>
+        <v>25304</v>
       </c>
       <c r="H51">
-        <v>14573</v>
+        <v>14478</v>
       </c>
       <c r="I51">
-        <v>3207</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>8068</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C52" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D52">
-        <v>44758</v>
+        <v>85209</v>
       </c>
       <c r="E52">
-        <v>43236</v>
+        <v>39733</v>
       </c>
       <c r="F52">
-        <v>10469</v>
+        <v>10146</v>
       </c>
       <c r="G52">
-        <v>22855</v>
+        <v>13974</v>
       </c>
       <c r="H52">
-        <v>12361</v>
+        <v>14573</v>
       </c>
       <c r="I52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>3207</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -2223,28 +2244,28 @@
         <v>18</v>
       </c>
       <c r="C53" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D53">
-        <v>41928</v>
+        <v>44758</v>
       </c>
       <c r="E53">
-        <v>47426</v>
+        <v>43236</v>
       </c>
       <c r="F53">
-        <v>2265</v>
+        <v>10469</v>
       </c>
       <c r="G53">
-        <v>13683</v>
+        <v>22855</v>
       </c>
       <c r="H53">
-        <v>22374</v>
+        <v>12361</v>
       </c>
       <c r="I53">
-        <v>2095</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -2252,28 +2273,28 @@
         <v>18</v>
       </c>
       <c r="C54" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D54">
-        <v>33591</v>
+        <v>41928</v>
       </c>
       <c r="E54">
-        <v>62935</v>
+        <v>47426</v>
       </c>
       <c r="F54">
-        <v>28832</v>
+        <v>2265</v>
       </c>
       <c r="G54">
-        <v>33861</v>
+        <v>13683</v>
       </c>
       <c r="H54">
-        <v>12396</v>
+        <v>22374</v>
       </c>
       <c r="I54">
-        <v>8368</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>2095</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -2281,28 +2302,28 @@
         <v>18</v>
       </c>
       <c r="C55" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D55">
-        <v>6465</v>
+        <v>33591</v>
       </c>
       <c r="E55">
-        <v>11128</v>
+        <v>62935</v>
       </c>
       <c r="F55">
-        <v>12048</v>
+        <v>28832</v>
       </c>
       <c r="G55">
-        <v>8747</v>
+        <v>33861</v>
       </c>
       <c r="H55">
-        <v>1942</v>
+        <v>12396</v>
       </c>
       <c r="I55">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>8368</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -2310,28 +2331,28 @@
         <v>18</v>
       </c>
       <c r="C56" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D56">
-        <v>63128</v>
+        <v>6465</v>
       </c>
       <c r="E56">
-        <v>186903</v>
+        <v>11128</v>
       </c>
       <c r="F56">
-        <v>40252</v>
+        <v>12048</v>
       </c>
       <c r="G56">
-        <v>187070</v>
+        <v>8747</v>
       </c>
       <c r="H56">
-        <v>33642</v>
+        <v>1942</v>
       </c>
       <c r="I56">
-        <v>19654</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -2339,57 +2360,57 @@
         <v>18</v>
       </c>
       <c r="C57" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D57">
-        <v>160402</v>
+        <v>63128</v>
       </c>
       <c r="E57">
-        <v>181002</v>
+        <v>186903</v>
       </c>
       <c r="F57">
-        <v>75690</v>
+        <v>40252</v>
       </c>
       <c r="G57">
-        <v>181572</v>
+        <v>187070</v>
       </c>
       <c r="H57">
-        <v>73775</v>
+        <v>33642</v>
       </c>
       <c r="I57">
-        <v>29209</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>19654</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C58" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D58">
-        <v>76937</v>
+        <v>160402</v>
       </c>
       <c r="E58">
-        <v>24067</v>
+        <v>181002</v>
       </c>
       <c r="F58">
-        <v>31143</v>
+        <v>75690</v>
       </c>
       <c r="G58">
-        <v>128244</v>
+        <v>181572</v>
       </c>
       <c r="H58">
-        <v>24088</v>
+        <v>73775</v>
       </c>
       <c r="I58">
-        <v>4036</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>29209</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -2397,28 +2418,28 @@
         <v>19</v>
       </c>
       <c r="C59" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D59">
-        <v>266758</v>
+        <v>76937</v>
       </c>
       <c r="E59">
-        <v>73995</v>
+        <v>24067</v>
       </c>
       <c r="F59">
-        <v>36389</v>
+        <v>31143</v>
       </c>
       <c r="G59">
-        <v>616150</v>
+        <v>128244</v>
       </c>
       <c r="H59">
-        <v>65756</v>
+        <v>24088</v>
       </c>
       <c r="I59">
-        <v>18132</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>4036</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -2426,28 +2447,28 @@
         <v>19</v>
       </c>
       <c r="C60" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D60">
-        <v>138087</v>
+        <v>266758</v>
       </c>
       <c r="E60">
-        <v>53317</v>
+        <v>73995</v>
       </c>
       <c r="F60">
-        <v>22779</v>
+        <v>36389</v>
       </c>
       <c r="G60">
-        <v>49664</v>
+        <v>616150</v>
       </c>
       <c r="H60">
-        <v>43273</v>
+        <v>65756</v>
       </c>
       <c r="I60">
-        <v>3506</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>18132</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -2455,57 +2476,57 @@
         <v>19</v>
       </c>
       <c r="C61" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D61">
-        <v>14097</v>
+        <v>138087</v>
       </c>
       <c r="E61">
-        <v>2149</v>
+        <v>53317</v>
       </c>
       <c r="F61">
-        <v>300</v>
+        <v>22779</v>
       </c>
       <c r="G61">
-        <v>5040</v>
+        <v>49664</v>
       </c>
       <c r="H61">
-        <v>1020</v>
+        <v>43273</v>
       </c>
       <c r="I61">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>3506</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C62" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D62">
-        <v>32581</v>
+        <v>14097</v>
       </c>
       <c r="E62">
-        <v>2043</v>
+        <v>2149</v>
       </c>
       <c r="F62">
-        <v>530</v>
+        <v>300</v>
       </c>
       <c r="G62">
-        <v>1949</v>
+        <v>5040</v>
       </c>
       <c r="H62">
-        <v>1207</v>
+        <v>1020</v>
       </c>
       <c r="I62">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -2513,28 +2534,28 @@
         <v>20</v>
       </c>
       <c r="C63" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D63">
-        <v>32627</v>
+        <v>32581</v>
       </c>
       <c r="E63">
-        <v>35524</v>
+        <v>2043</v>
       </c>
       <c r="F63">
-        <v>2274</v>
+        <v>530</v>
       </c>
       <c r="G63">
-        <v>25058</v>
+        <v>1949</v>
       </c>
       <c r="H63">
-        <v>10232</v>
+        <v>1207</v>
       </c>
       <c r="I63">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -2542,28 +2563,28 @@
         <v>20</v>
       </c>
       <c r="C64" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D64">
-        <v>232317</v>
+        <v>32627</v>
       </c>
       <c r="E64">
-        <v>100114</v>
+        <v>35524</v>
       </c>
       <c r="F64">
-        <v>33323</v>
+        <v>2274</v>
       </c>
       <c r="G64">
-        <v>53316</v>
+        <v>25058</v>
       </c>
       <c r="H64">
-        <v>25929</v>
+        <v>10232</v>
       </c>
       <c r="I64">
-        <v>10890</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -2571,28 +2592,28 @@
         <v>20</v>
       </c>
       <c r="C65" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D65">
-        <v>38535</v>
+        <v>232317</v>
       </c>
       <c r="E65">
-        <v>44338</v>
+        <v>100114</v>
       </c>
       <c r="F65">
-        <v>11415</v>
+        <v>33323</v>
       </c>
       <c r="G65">
-        <v>14950</v>
+        <v>53316</v>
       </c>
       <c r="H65">
-        <v>13607</v>
+        <v>25929</v>
       </c>
       <c r="I65">
-        <v>3774</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>10890</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -2600,28 +2621,28 @@
         <v>20</v>
       </c>
       <c r="C66" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D66">
-        <v>95254</v>
+        <v>38535</v>
       </c>
       <c r="E66">
-        <v>23961</v>
+        <v>44338</v>
       </c>
       <c r="F66">
-        <v>8565</v>
+        <v>11415</v>
       </c>
       <c r="G66">
-        <v>18306</v>
+        <v>14950</v>
       </c>
       <c r="H66">
-        <v>14795</v>
+        <v>13607</v>
       </c>
       <c r="I66">
-        <v>4383</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>3774</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -2629,57 +2650,57 @@
         <v>20</v>
       </c>
       <c r="C67" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D67">
-        <v>58501</v>
+        <v>95254</v>
       </c>
       <c r="E67">
-        <v>9355</v>
+        <v>23961</v>
       </c>
       <c r="F67">
-        <v>500</v>
+        <v>8565</v>
       </c>
       <c r="G67">
-        <v>19018</v>
+        <v>18306</v>
       </c>
       <c r="H67">
-        <v>5205</v>
+        <v>14795</v>
       </c>
       <c r="I67">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>4383</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C68" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D68">
-        <v>183681</v>
+        <v>58501</v>
       </c>
       <c r="E68">
-        <v>31741</v>
+        <v>9355</v>
       </c>
       <c r="F68">
-        <v>10884</v>
+        <v>500</v>
       </c>
       <c r="G68">
-        <v>21746</v>
+        <v>19018</v>
       </c>
       <c r="H68">
-        <v>55667</v>
+        <v>5205</v>
       </c>
       <c r="I68">
-        <v>5008</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -2687,28 +2708,28 @@
         <v>21</v>
       </c>
       <c r="C69" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D69">
-        <v>18773</v>
+        <v>183681</v>
       </c>
       <c r="E69">
-        <v>253</v>
+        <v>31741</v>
       </c>
       <c r="F69">
-        <v>3</v>
+        <v>10884</v>
       </c>
       <c r="G69">
-        <v>535</v>
+        <v>21746</v>
       </c>
       <c r="H69">
-        <v>514</v>
+        <v>55667</v>
       </c>
       <c r="I69">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>5008</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -2716,28 +2737,28 @@
         <v>21</v>
       </c>
       <c r="C70" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D70">
-        <v>96758</v>
+        <v>18773</v>
       </c>
       <c r="E70">
-        <v>43740</v>
+        <v>253</v>
       </c>
       <c r="F70">
-        <v>9109</v>
+        <v>3</v>
       </c>
       <c r="G70">
-        <v>30890</v>
+        <v>535</v>
       </c>
       <c r="H70">
-        <v>33953</v>
+        <v>514</v>
       </c>
       <c r="I70">
-        <v>2493</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -2745,28 +2766,28 @@
         <v>21</v>
       </c>
       <c r="C71" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D71">
-        <v>79000</v>
+        <v>96758</v>
       </c>
       <c r="E71">
-        <v>21391</v>
+        <v>43740</v>
       </c>
       <c r="F71">
-        <v>3560</v>
+        <v>9109</v>
       </c>
       <c r="G71">
-        <v>8409</v>
+        <v>30890</v>
       </c>
       <c r="H71">
-        <v>19843</v>
+        <v>33953</v>
       </c>
       <c r="I71">
-        <v>2667</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>2493</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -2774,57 +2795,57 @@
         <v>21</v>
       </c>
       <c r="C72" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D72">
-        <v>200737</v>
+        <v>79000</v>
       </c>
       <c r="E72">
-        <v>32421</v>
+        <v>21391</v>
       </c>
       <c r="F72">
-        <v>5206</v>
+        <v>3560</v>
       </c>
       <c r="G72">
-        <v>94688</v>
+        <v>8409</v>
       </c>
       <c r="H72">
-        <v>21102</v>
+        <v>19843</v>
       </c>
       <c r="I72">
-        <v>8040</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>2667</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C73" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D73">
-        <v>72473</v>
+        <v>200737</v>
       </c>
       <c r="E73">
-        <v>46865</v>
+        <v>32421</v>
       </c>
       <c r="F73">
-        <v>9556</v>
+        <v>5206</v>
       </c>
       <c r="G73">
-        <v>8756</v>
+        <v>94688</v>
       </c>
       <c r="H73">
-        <v>25518</v>
+        <v>21102</v>
       </c>
       <c r="I73">
-        <v>6273</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>8040</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -2832,28 +2853,28 @@
         <v>22</v>
       </c>
       <c r="C74" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D74">
-        <v>59111</v>
+        <v>72473</v>
       </c>
       <c r="E74">
-        <v>32427</v>
+        <v>46865</v>
       </c>
       <c r="F74">
-        <v>5167</v>
+        <v>9556</v>
       </c>
       <c r="G74">
-        <v>54358</v>
+        <v>8756</v>
       </c>
       <c r="H74">
-        <v>22221</v>
+        <v>25518</v>
       </c>
       <c r="I74">
-        <v>59948</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>6273</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -2861,28 +2882,28 @@
         <v>22</v>
       </c>
       <c r="C75" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D75">
-        <v>385938</v>
+        <v>59111</v>
       </c>
       <c r="E75">
-        <v>71503</v>
+        <v>32427</v>
       </c>
       <c r="F75">
-        <v>10537</v>
+        <v>5167</v>
       </c>
       <c r="G75">
-        <v>44912</v>
+        <v>54358</v>
       </c>
       <c r="H75">
-        <v>28277</v>
+        <v>22221</v>
       </c>
       <c r="I75">
-        <v>27580</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>59948</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -2890,28 +2911,28 @@
         <v>22</v>
       </c>
       <c r="C76" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D76">
-        <v>20750</v>
+        <v>385938</v>
       </c>
       <c r="E76">
-        <v>24009</v>
+        <v>71503</v>
       </c>
       <c r="F76">
-        <v>5903</v>
+        <v>10537</v>
       </c>
       <c r="G76">
-        <v>1063</v>
+        <v>44912</v>
       </c>
       <c r="H76">
-        <v>25076</v>
+        <v>28277</v>
       </c>
       <c r="I76">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>27580</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -2919,57 +2940,57 @@
         <v>22</v>
       </c>
       <c r="C77" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D77">
-        <v>50106</v>
+        <v>20750</v>
       </c>
       <c r="E77">
-        <v>41243</v>
+        <v>24009</v>
       </c>
       <c r="F77">
-        <v>4284</v>
+        <v>5903</v>
       </c>
       <c r="G77">
-        <v>11477</v>
+        <v>1063</v>
       </c>
       <c r="H77">
-        <v>20706</v>
+        <v>25076</v>
       </c>
       <c r="I77">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C78" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D78">
-        <v>117223</v>
+        <v>50106</v>
       </c>
       <c r="E78">
-        <v>111284</v>
+        <v>41243</v>
       </c>
       <c r="F78">
-        <v>37245</v>
+        <v>4284</v>
       </c>
       <c r="G78">
-        <v>13406</v>
+        <v>11477</v>
       </c>
       <c r="H78">
-        <v>29159</v>
+        <v>20706</v>
       </c>
       <c r="I78">
-        <v>12250</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -2977,28 +2998,28 @@
         <v>23</v>
       </c>
       <c r="C79" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D79">
-        <v>47195</v>
+        <v>117223</v>
       </c>
       <c r="E79">
-        <v>2979</v>
+        <v>111284</v>
       </c>
       <c r="F79">
-        <v>1953</v>
+        <v>37245</v>
       </c>
       <c r="G79">
-        <v>3419</v>
+        <v>13406</v>
       </c>
       <c r="H79">
-        <v>40</v>
+        <v>29159</v>
       </c>
       <c r="I79">
-        <v>3280</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>12250</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -3006,28 +3027,28 @@
         <v>23</v>
       </c>
       <c r="C80" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D80">
-        <v>43345</v>
+        <v>47195</v>
       </c>
       <c r="E80">
-        <v>41012</v>
+        <v>2979</v>
       </c>
       <c r="F80">
-        <v>9326</v>
+        <v>1953</v>
       </c>
       <c r="G80">
-        <v>7057</v>
+        <v>3419</v>
       </c>
       <c r="H80">
-        <v>22837</v>
+        <v>40</v>
       </c>
       <c r="I80">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>3280</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -3035,28 +3056,28 @@
         <v>23</v>
       </c>
       <c r="C81" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D81">
-        <v>177011</v>
+        <v>43345</v>
       </c>
       <c r="E81">
-        <v>97621</v>
+        <v>41012</v>
       </c>
       <c r="F81">
-        <v>8091</v>
+        <v>9326</v>
       </c>
       <c r="G81">
-        <v>47957</v>
+        <v>7057</v>
       </c>
       <c r="H81">
-        <v>25222</v>
+        <v>22837</v>
       </c>
       <c r="I81">
-        <v>6356</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -3064,57 +3085,57 @@
         <v>23</v>
       </c>
       <c r="C82" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D82">
-        <v>31055</v>
+        <v>177011</v>
       </c>
       <c r="E82">
-        <v>89300</v>
+        <v>97621</v>
       </c>
       <c r="F82">
-        <v>10815</v>
+        <v>8091</v>
       </c>
       <c r="G82">
-        <v>23293</v>
+        <v>47957</v>
       </c>
       <c r="H82">
-        <v>29511</v>
+        <v>25222</v>
       </c>
       <c r="I82">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>6356</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C83" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D83">
-        <v>46383</v>
+        <v>31055</v>
       </c>
       <c r="E83">
-        <v>40699</v>
+        <v>89300</v>
       </c>
       <c r="F83">
-        <v>1500</v>
+        <v>10815</v>
       </c>
       <c r="G83">
-        <v>47339</v>
+        <v>23293</v>
       </c>
       <c r="H83">
-        <v>8533</v>
+        <v>29511</v>
       </c>
       <c r="I83">
-        <v>9361</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -3122,28 +3143,28 @@
         <v>24</v>
       </c>
       <c r="C84" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D84">
-        <v>45063</v>
+        <v>46383</v>
       </c>
       <c r="E84">
-        <v>31451</v>
+        <v>40699</v>
       </c>
       <c r="F84">
-        <v>9103</v>
+        <v>1500</v>
       </c>
       <c r="G84">
-        <v>24330</v>
+        <v>47339</v>
       </c>
       <c r="H84">
-        <v>34065</v>
+        <v>8533</v>
       </c>
       <c r="I84">
-        <v>9641</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>9361</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -3151,28 +3172,28 @@
         <v>24</v>
       </c>
       <c r="C85" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D85">
-        <v>20986</v>
+        <v>45063</v>
       </c>
       <c r="E85">
-        <v>3335</v>
+        <v>31451</v>
       </c>
       <c r="F85">
-        <v>671</v>
+        <v>9103</v>
       </c>
       <c r="G85">
-        <v>880</v>
+        <v>24330</v>
       </c>
       <c r="H85">
-        <v>2309</v>
+        <v>34065</v>
       </c>
       <c r="I85">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>9641</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -3180,28 +3201,28 @@
         <v>24</v>
       </c>
       <c r="C86" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D86">
-        <v>62096</v>
+        <v>20986</v>
       </c>
       <c r="E86">
-        <v>8585</v>
+        <v>3335</v>
       </c>
       <c r="F86">
-        <v>1336</v>
+        <v>671</v>
       </c>
       <c r="G86">
-        <v>28389</v>
+        <v>880</v>
       </c>
       <c r="H86">
-        <v>6190</v>
+        <v>2309</v>
       </c>
       <c r="I86">
-        <v>2218</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -3209,24 +3230,50 @@
         <v>24</v>
       </c>
       <c r="C87" t="s">
+        <v>109</v>
+      </c>
+      <c r="D87">
+        <v>62096</v>
+      </c>
+      <c r="E87">
+        <v>8585</v>
+      </c>
+      <c r="F87">
+        <v>1336</v>
+      </c>
+      <c r="G87">
+        <v>28389</v>
+      </c>
+      <c r="H87">
+        <v>6190</v>
+      </c>
+      <c r="I87">
+        <v>2218</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B88" t="s">
+        <v>24</v>
+      </c>
+      <c r="C88" t="s">
         <v>110</v>
       </c>
-      <c r="D87">
+      <c r="D88">
         <v>50520</v>
       </c>
-      <c r="E87">
+      <c r="E88">
         <v>25111</v>
       </c>
-      <c r="F87">
+      <c r="F88">
         <v>1980</v>
       </c>
-      <c r="G87">
+      <c r="G88">
         <v>30022</v>
       </c>
-      <c r="H87">
+      <c r="H88">
         <v>17539</v>
       </c>
-      <c r="I87">
+      <c r="I88">
         <v>3987</v>
       </c>
     </row>
